--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bmp7-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bmp7-Bmpr1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,22 +79,22 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Bmp7</t>
+  </si>
+  <si>
+    <t>Bmpr1a</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Bmp7</t>
-  </si>
-  <si>
-    <t>Bmpr1a</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.1928755</v>
+        <v>0.131795</v>
       </c>
       <c r="H2">
-        <v>0.385751</v>
+        <v>0.26359</v>
       </c>
       <c r="I2">
-        <v>0.5971269868707221</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.4970108562608389</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.344454</v>
+        <v>6.780879499999999</v>
       </c>
       <c r="N2">
-        <v>8.688908</v>
+        <v>13.561759</v>
       </c>
       <c r="O2">
-        <v>0.07166328453363975</v>
+        <v>0.09314755032665376</v>
       </c>
       <c r="P2">
-        <v>0.05740743684517154</v>
+        <v>0.07273600820493056</v>
       </c>
       <c r="Q2">
-        <v>0.8379387374769999</v>
+        <v>0.8936860137024999</v>
       </c>
       <c r="R2">
-        <v>3.351754949907999</v>
+        <v>3.57474405481</v>
       </c>
       <c r="S2">
-        <v>0.04279208116283152</v>
+        <v>0.09314755032665376</v>
       </c>
       <c r="T2">
-        <v>0.02853211934215874</v>
+        <v>0.07273600820493056</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.1928755</v>
+        <v>0.131795</v>
       </c>
       <c r="H3">
-        <v>0.385751</v>
+        <v>0.26359</v>
       </c>
       <c r="I3">
-        <v>0.5971269868707221</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.4970108562608389</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>72.555193</v>
       </c>
       <c r="O3">
-        <v>0.3989410744788757</v>
+        <v>0.3322252662272683</v>
       </c>
       <c r="P3">
-        <v>0.4793706711978918</v>
+        <v>0.389136476570504</v>
       </c>
       <c r="Q3">
-        <v>4.664706375823832</v>
+        <v>3.187470553811667</v>
       </c>
       <c r="R3">
-        <v>27.988238254943</v>
+        <v>19.12482332287</v>
       </c>
       <c r="S3">
-        <v>0.2382184817425393</v>
+        <v>0.3322252662272683</v>
       </c>
       <c r="T3">
-        <v>0.2382524277583973</v>
+        <v>0.389136476570504</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.1928755</v>
+        <v>0.131795</v>
       </c>
       <c r="H4">
-        <v>0.385751</v>
+        <v>0.26359</v>
       </c>
       <c r="I4">
-        <v>0.5971269868707221</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.4970108562608389</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1434473333333333</v>
+        <v>1.592065666666667</v>
       </c>
       <c r="N4">
-        <v>0.430342</v>
+        <v>4.776197</v>
       </c>
       <c r="O4">
-        <v>0.002366213812888463</v>
+        <v>0.02186987938794236</v>
       </c>
       <c r="P4">
-        <v>0.002843260762667162</v>
+        <v>0.02561625701948875</v>
       </c>
       <c r="Q4">
-        <v>0.02766747614033333</v>
+        <v>0.2098262945383333</v>
       </c>
       <c r="R4">
-        <v>0.166004856842</v>
+        <v>1.25895776723</v>
       </c>
       <c r="S4">
-        <v>0.00141293012438197</v>
+        <v>0.02186987938794236</v>
       </c>
       <c r="T4">
-        <v>0.001413131466226052</v>
+        <v>0.02561625701948875</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.1928755</v>
+        <v>0.131795</v>
       </c>
       <c r="H5">
-        <v>0.385751</v>
+        <v>0.26359</v>
       </c>
       <c r="I5">
-        <v>0.5971269868707221</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.4970108562608389</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.1699</v>
+        <v>25.158886</v>
       </c>
       <c r="N5">
-        <v>52.3398</v>
+        <v>50.31777200000001</v>
       </c>
       <c r="O5">
-        <v>0.4316816313205064</v>
+        <v>0.3456024546443489</v>
       </c>
       <c r="P5">
-        <v>0.3458079845003433</v>
+        <v>0.2698701456828592</v>
       </c>
       <c r="Q5">
-        <v>5.047532547449999</v>
+        <v>3.31581538037</v>
       </c>
       <c r="R5">
-        <v>20.1901301898</v>
+        <v>13.26326152148</v>
       </c>
       <c r="S5">
-        <v>0.2577687517978519</v>
+        <v>0.3456024546443489</v>
       </c>
       <c r="T5">
-        <v>0.1718703224783505</v>
+        <v>0.2698701456828592</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.1928755</v>
+        <v>0.131795</v>
       </c>
       <c r="H6">
-        <v>0.385751</v>
+        <v>0.26359</v>
       </c>
       <c r="I6">
-        <v>0.5971269868707221</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.4970108562608389</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.708586333333333</v>
+        <v>14.00046133333333</v>
       </c>
       <c r="N6">
-        <v>14.125759</v>
+        <v>42.001384</v>
       </c>
       <c r="O6">
-        <v>0.07766977441972552</v>
+        <v>0.1923214645892228</v>
       </c>
       <c r="P6">
-        <v>0.09332859982895587</v>
+        <v>0.225266723235713</v>
       </c>
       <c r="Q6">
-        <v>0.9081709433348332</v>
+        <v>1.845190801426667</v>
       </c>
       <c r="R6">
-        <v>5.449025660008999</v>
+        <v>11.07114480856</v>
       </c>
       <c r="S6">
-        <v>0.04637871837017939</v>
+        <v>0.1923214645892228</v>
       </c>
       <c r="T6">
-        <v>0.04638532731461454</v>
+        <v>0.225266723235713</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.1928755</v>
+        <v>0.131795</v>
       </c>
       <c r="H7">
-        <v>0.385751</v>
+        <v>0.26359</v>
       </c>
       <c r="I7">
-        <v>0.5971269868707221</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0.4970108562608389</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,400 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.071697333333333</v>
+        <v>1.079828666666667</v>
       </c>
       <c r="N7">
-        <v>3.215092</v>
+        <v>3.239486</v>
       </c>
       <c r="O7">
-        <v>0.01767802143436428</v>
+        <v>0.01483338482456395</v>
       </c>
       <c r="P7">
-        <v>0.0212420468649704</v>
+        <v>0.01737438928650463</v>
       </c>
       <c r="Q7">
-        <v>0.2067041590153333</v>
+        <v>0.1423160191233333</v>
       </c>
       <c r="R7">
-        <v>1.240224954092</v>
+        <v>0.8538961147399999</v>
       </c>
       <c r="S7">
-        <v>0.01055602367293798</v>
+        <v>0.01483338482456395</v>
       </c>
       <c r="T7">
-        <v>0.01055752790109181</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.1301303333333333</v>
-      </c>
-      <c r="H8">
-        <v>0.390391</v>
-      </c>
-      <c r="I8">
-        <v>0.4028730131292778</v>
-      </c>
-      <c r="J8">
-        <v>0.5029891437391611</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>4.344454</v>
-      </c>
-      <c r="N8">
-        <v>8.688908</v>
-      </c>
-      <c r="O8">
-        <v>0.07166328453363975</v>
-      </c>
-      <c r="P8">
-        <v>0.05740743684517154</v>
-      </c>
-      <c r="Q8">
-        <v>0.5653452471713333</v>
-      </c>
-      <c r="R8">
-        <v>3.392071483028</v>
-      </c>
-      <c r="S8">
-        <v>0.02887120337080822</v>
-      </c>
-      <c r="T8">
-        <v>0.0288753175030128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.1301303333333333</v>
-      </c>
-      <c r="H9">
-        <v>0.390391</v>
-      </c>
-      <c r="I9">
-        <v>0.4028730131292778</v>
-      </c>
-      <c r="J9">
-        <v>0.5029891437391611</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>24.18506433333333</v>
-      </c>
-      <c r="N9">
-        <v>72.555193</v>
-      </c>
-      <c r="O9">
-        <v>0.3989410744788757</v>
-      </c>
-      <c r="P9">
-        <v>0.4793706711978918</v>
-      </c>
-      <c r="Q9">
-        <v>3.147210483384777</v>
-      </c>
-      <c r="R9">
-        <v>28.324894350463</v>
-      </c>
-      <c r="S9">
-        <v>0.1607225927363363</v>
-      </c>
-      <c r="T9">
-        <v>0.2411182434394946</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.1301303333333333</v>
-      </c>
-      <c r="H10">
-        <v>0.390391</v>
-      </c>
-      <c r="I10">
-        <v>0.4028730131292778</v>
-      </c>
-      <c r="J10">
-        <v>0.5029891437391611</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.1434473333333333</v>
-      </c>
-      <c r="N10">
-        <v>0.430342</v>
-      </c>
-      <c r="O10">
-        <v>0.002366213812888463</v>
-      </c>
-      <c r="P10">
-        <v>0.002843260762667162</v>
-      </c>
-      <c r="Q10">
-        <v>0.01866684930244444</v>
-      </c>
-      <c r="R10">
-        <v>0.168001643722</v>
-      </c>
-      <c r="S10">
-        <v>0.0009532836885064922</v>
-      </c>
-      <c r="T10">
-        <v>0.00143012929644111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.1301303333333333</v>
-      </c>
-      <c r="H11">
-        <v>0.390391</v>
-      </c>
-      <c r="I11">
-        <v>0.4028730131292778</v>
-      </c>
-      <c r="J11">
-        <v>0.5029891437391611</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>26.1699</v>
-      </c>
-      <c r="N11">
-        <v>52.3398</v>
-      </c>
-      <c r="O11">
-        <v>0.4316816313205064</v>
-      </c>
-      <c r="P11">
-        <v>0.3458079845003433</v>
-      </c>
-      <c r="Q11">
-        <v>3.4054978103</v>
-      </c>
-      <c r="R11">
-        <v>20.4329868618</v>
-      </c>
-      <c r="S11">
-        <v>0.1739128795226544</v>
-      </c>
-      <c r="T11">
-        <v>0.1739376620219928</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.1301303333333333</v>
-      </c>
-      <c r="H12">
-        <v>0.390391</v>
-      </c>
-      <c r="I12">
-        <v>0.4028730131292778</v>
-      </c>
-      <c r="J12">
-        <v>0.5029891437391611</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>4.708586333333333</v>
-      </c>
-      <c r="N12">
-        <v>14.125759</v>
-      </c>
-      <c r="O12">
-        <v>0.07766977441972552</v>
-      </c>
-      <c r="P12">
-        <v>0.09332859982895587</v>
-      </c>
-      <c r="Q12">
-        <v>0.6127299090854443</v>
-      </c>
-      <c r="R12">
-        <v>5.514569181769</v>
-      </c>
-      <c r="S12">
-        <v>0.03129105604954612</v>
-      </c>
-      <c r="T12">
-        <v>0.04694327251434133</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.1301303333333333</v>
-      </c>
-      <c r="H13">
-        <v>0.390391</v>
-      </c>
-      <c r="I13">
-        <v>0.4028730131292778</v>
-      </c>
-      <c r="J13">
-        <v>0.5029891437391611</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.071697333333333</v>
-      </c>
-      <c r="N13">
-        <v>3.215092</v>
-      </c>
-      <c r="O13">
-        <v>0.01767802143436428</v>
-      </c>
-      <c r="P13">
-        <v>0.0212420468649704</v>
-      </c>
-      <c r="Q13">
-        <v>0.1394603312191111</v>
-      </c>
-      <c r="R13">
-        <v>1.255142980972</v>
-      </c>
-      <c r="S13">
-        <v>0.007121997761426295</v>
-      </c>
-      <c r="T13">
-        <v>0.0106845189638786</v>
+        <v>0.01737438928650463</v>
       </c>
     </row>
   </sheetData>
